--- a/CEUAS/meta/inventory_comparison_2/code/station_configuration/era5_1761_orphans_station_configuration_extended.xlsx
+++ b/CEUAS/meta/inventory_comparison_2/code/station_configuration/era5_1761_orphans_station_configuration_extended.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN145"/>
+  <dimension ref="A1:AN143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,17 +636,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:26440</t>
+          <t>era5.1761.conv.2:23212</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-20888-0-2:26440</t>
+          <t>0-20666-0-2:23212</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2:26440</t>
+          <t xml:space="preserve">2:23212 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -687,16 +687,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>-142.67</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>63.38</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -704,12 +696,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>19410602</t>
+          <t>19440825</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>19420329</t>
+          <t>19440825</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -834,7 +826,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:22513</t>
+          <t>era5.1761.conv.9:4172</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -844,7 +836,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-20888-0-2:22513</t>
+          <t>0-20888-0-9:4172</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -857,7 +849,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2:22513</t>
+          <t xml:space="preserve">9:4172  </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -887,12 +879,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-154.43</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>61.67</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -902,12 +894,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>19290130</t>
+          <t>19440623</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>19350623</t>
+          <t>19440701</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -982,7 +974,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>[106, 107]</t>
+          <t>[85, 117]</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -1032,7 +1024,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>era5.1761.conv.9:1260</t>
+          <t>era5.1761.conv.2:21502</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1042,7 +1034,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-20888-0-9:1260</t>
+          <t>0-20888-0-2:21502</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1055,7 +1047,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>9:1260</t>
+          <t xml:space="preserve">2:21502 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1085,12 +1077,12 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>119.12</t>
+          <t>-154.32</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>28.1</t>
+          <t>18.92</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1100,12 +1092,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>19570302</t>
+          <t>19400305</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>19591231</t>
+          <t>19401011</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1230,7 +1222,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>era5.1761.conv.9:3783</t>
+          <t>era5.1761.conv.2:14718</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1240,7 +1232,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-20888-0-9:3783</t>
+          <t>0-20888-0-2:14718</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1253,7 +1245,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9:3783</t>
+          <t xml:space="preserve">2:14718 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1283,12 +1275,12 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>148.58</t>
+          <t>-71.38</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>76.65</t>
+          <t>40.83</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1298,12 +1290,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>19570202</t>
+          <t>19440506</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>19570618</t>
+          <t>19440614</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1378,7 +1370,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>[85, 117]</t>
+          <t>[106, 107]</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1428,17 +1420,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13715</t>
+          <t>era5.1761.conv.2:26440</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-20777-0-2:13715</t>
+          <t>0-20888-0-2:26440</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1451,7 +1443,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2:13715</t>
+          <t xml:space="preserve">2:26440 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1481,12 +1473,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-78.33, -78.33]</t>
+          <t>-142.67</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[39.83, 39.83]</t>
+          <t>63.38</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1496,12 +1488,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>19270130</t>
+          <t>19410602</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>19320922</t>
+          <t>19420329</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1626,7 +1618,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:25610</t>
+          <t>era5.1761.conv.9:3783</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1636,7 +1628,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-20888-0-2:25610</t>
+          <t>0-20888-0-9:3783</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1649,7 +1641,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2:25610</t>
+          <t xml:space="preserve">9:3783  </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1679,12 +1671,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-166.22</t>
+          <t>148.58</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>53.53</t>
+          <t>76.65</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1694,12 +1686,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>19430701</t>
+          <t>19570202</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>19450916</t>
+          <t>19570618</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1774,7 +1766,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>[106, 107]</t>
+          <t>[85, 117]</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1824,7 +1816,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>era5.1761.conv.9:1279</t>
+          <t>era5.1761.conv.2:26635</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1834,7 +1826,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-20888-0-9:1279</t>
+          <t>0-20888-0-2:26635</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1847,7 +1839,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>9:1279</t>
+          <t xml:space="preserve">2:26635 </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1877,12 +1869,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-14.73</t>
+          <t>-162.25</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>-7.97</t>
+          <t>62.12</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1892,12 +1884,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>19441020</t>
+          <t>19440108</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>19461028</t>
+          <t>19450613</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2022,7 +2014,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:22512</t>
+          <t>era5.1761.conv.2:13834</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2032,7 +2024,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-20888-0-2:22512</t>
+          <t>0-20888-0-2:13834</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2045,7 +2037,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2:22512</t>
+          <t xml:space="preserve">2:13834 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2075,12 +2067,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>-156.03</t>
+          <t>-88.83</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>21.37</t>
+          <t>31.67</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2090,12 +2082,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>19310831</t>
+          <t>19431104</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>19331220</t>
+          <t>19440318</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2220,7 +2212,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:14718</t>
+          <t>era5.1761.conv.2:12907</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2230,7 +2222,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-20888-0-2:14718</t>
+          <t>0-20888-0-2:12907</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2243,7 +2235,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2:14718</t>
+          <t xml:space="preserve">2:12907 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2273,12 +2265,12 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-71.38</t>
+          <t>-98.53</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>40.83</t>
+          <t>27.53</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2288,12 +2280,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>19440506</t>
+          <t>19440601</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>19440614</t>
+          <t>19450304</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2418,7 +2410,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>era5.1761.conv.9:4116</t>
+          <t>era5.1761.conv.2:25610</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2428,7 +2420,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-20888-0-9:4116</t>
+          <t>0-20888-0-2:25610</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2441,7 +2433,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9:4116</t>
+          <t xml:space="preserve">2:25610 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2471,12 +2463,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>95.05</t>
+          <t>-166.22</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>-72.13</t>
+          <t>53.53</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2486,12 +2478,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>19570701</t>
+          <t>19430701</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>19571119</t>
+          <t>19450916</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2566,7 +2558,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>[85, 117]</t>
+          <t>[106, 107]</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -2616,7 +2608,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>era5.1761.conv.9:1245</t>
+          <t>era5.1761.conv.9:1259</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2626,7 +2618,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-20888-0-9:1245</t>
+          <t>0-20888-0-9:1259</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2639,7 +2631,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>9:1245</t>
+          <t xml:space="preserve">9:1259  </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2669,12 +2661,12 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>105.8</t>
+          <t>117.1</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>32.43</t>
+          <t>28.28</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -2689,7 +2681,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>19591231</t>
+          <t>19580824</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -2814,7 +2806,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>era5.1761.conv.9:1244</t>
+          <t>era5.1761.conv.2:22513</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2824,7 +2816,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-20888-0-9:1244</t>
+          <t>0-20888-0-2:22513</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2837,7 +2829,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>9:1244</t>
+          <t xml:space="preserve">2:22513 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2867,12 +2859,12 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>113.83</t>
+          <t>-154.43</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>34.02</t>
+          <t>19.08</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2882,12 +2874,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>19570304</t>
+          <t>19290130</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>19591231</t>
+          <t>19350623</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -3012,17 +3004,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:24110</t>
+          <t>era5.1761.conv.2:24206</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-20777-0-2:24110</t>
+          <t>0-20888-0-2:24206</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3035,7 +3027,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2:24110</t>
+          <t xml:space="preserve">2:24206 </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -3065,12 +3057,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-118.68, -118.68]</t>
+          <t>-121.7</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>[47.2, 47.2]</t>
+          <t>40.52</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -3080,12 +3072,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>19440505</t>
+          <t>19440807</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>19441107</t>
+          <t>19441201</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -3210,17 +3202,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:26635</t>
+          <t>era5.1761.conv.9:3114</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-20666-0-2:26635</t>
+          <t>0-20888-0-9:3114</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3233,7 +3225,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2:26635</t>
+          <t xml:space="preserve">9:3114  </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3261,8 +3253,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -3270,12 +3270,12 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>19440108</t>
+          <t>19440801</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19450613</t>
+          <t>19450512</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -3400,17 +3400,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:12910</t>
+          <t>era5.1761.conv.9:4116</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-20666-0-2:12910</t>
+          <t>0-20888-0-9:4116</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2:12910</t>
+          <t xml:space="preserve">9:4116  </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3451,8 +3451,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>-72.13</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -3460,12 +3468,12 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>19440725</t>
+          <t>19570701</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>19450814</t>
+          <t>19571119</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -3540,7 +3548,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>[106, 107]</t>
+          <t>[85, 117]</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
@@ -3590,7 +3598,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:12825</t>
+          <t>era5.1761.conv.2:23130</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3600,7 +3608,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-20666-0-2:12825</t>
+          <t>0-20666-0-2:23130</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3613,7 +3621,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2:12825</t>
+          <t xml:space="preserve">2:23130 </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3650,12 +3658,12 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>19440511</t>
+          <t>19440330</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>19451023</t>
+          <t>19450222</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -3780,7 +3788,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:12902</t>
+          <t>era5.1761.conv.2:12910</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3790,7 +3798,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-20666-0-2:12902</t>
+          <t>0-20666-0-2:12910</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3803,7 +3811,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2:12902</t>
+          <t xml:space="preserve">2:12910 </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3840,12 +3848,12 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>19331110</t>
+          <t>19440725</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>19350930</t>
+          <t>19450814</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -3970,7 +3978,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13834</t>
+          <t>era5.1761.conv.9:1279</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3980,7 +3988,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-20888-0-2:13834</t>
+          <t>0-20888-0-9:1279</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3993,7 +4001,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2:13834</t>
+          <t xml:space="preserve">9:1279  </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -4023,12 +4031,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>-88.83</t>
+          <t>-14.73</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>31.67</t>
+          <t>-7.97</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -4038,12 +4046,12 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>19431104</t>
+          <t>19441020</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>19440318</t>
+          <t>19461028</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -4168,7 +4176,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>era5.1761.conv.9:1429</t>
+          <t>era5.1761.conv.2:13715</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4178,7 +4186,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-20888-0-9:1429</t>
+          <t>0-20888-0-2:13715</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4191,7 +4199,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>9:1429</t>
+          <t xml:space="preserve">2:13715 </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -4221,12 +4229,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>89.5</t>
+          <t>-78.33</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>39.83</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -4236,12 +4244,12 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>19570301</t>
+          <t>19270130</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>19591231</t>
+          <t>19320922</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -4366,7 +4374,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>era5.1761.conv.9:1259</t>
+          <t>era5.1761.conv.2:22512</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4376,7 +4384,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-20888-0-9:1259</t>
+          <t>0-20888-0-2:22512</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4389,7 +4397,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>9:1259</t>
+          <t xml:space="preserve">2:22512 </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -4419,12 +4427,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>117.1</t>
+          <t>-156.03</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>28.28</t>
+          <t>21.37</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -4434,12 +4442,12 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>19570302</t>
+          <t>19310831</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>19580824</t>
+          <t>19331220</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -4564,17 +4572,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:24175</t>
+          <t>era5.1761.conv.2:23139</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-20888-0-2:24175</t>
+          <t>0-20666-0-2:23139</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4587,7 +4595,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2:24175</t>
+          <t xml:space="preserve">2:23139 </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -4615,16 +4623,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>-110.12</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>40.77</t>
-        </is>
-      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -4632,12 +4632,12 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>19240401</t>
+          <t>19440601</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>19280430</t>
+          <t>19440829</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:12907</t>
+          <t>era5.1761.conv.9:1260</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-20888-0-2:12907</t>
+          <t>0-20888-0-9:1260</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2:12907</t>
+          <t xml:space="preserve">9:1260  </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4815,12 +4815,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>-98.53</t>
+          <t>119.12</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>27.53</t>
+          <t>28.1</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -4830,12 +4830,12 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>19440601</t>
+          <t>19570302</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>19450304</t>
+          <t>19591231</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -4960,17 +4960,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:23130</t>
+          <t>era5.1761.conv.9:520</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-20666-0-2:23130</t>
+          <t>0-20888-0-9:520</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2:23130</t>
+          <t xml:space="preserve">9:520   </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -5011,8 +5011,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>-155.43</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -5020,12 +5028,12 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>19440330</t>
+          <t>19410407</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>19450222</t>
+          <t>19420831</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -5150,7 +5158,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13808</t>
+          <t>era5.1761.conv.9:1244</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5160,7 +5168,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-20888-0-2:13808</t>
+          <t>0-20888-0-9:1244</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -5173,7 +5181,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2:13808</t>
+          <t xml:space="preserve">9:1244  </t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -5203,12 +5211,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-83.67</t>
+          <t>113.83</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>30.43</t>
+          <t>34.02</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -5218,12 +5226,12 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>19420511</t>
+          <t>19570304</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>19441101</t>
+          <t>19591231</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -5348,7 +5356,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>era5.1761.conv.9:4172</t>
+          <t>era5.1761.conv.9:1429</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5358,7 +5366,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-20888-0-9:4172</t>
+          <t>0-20888-0-9:1429</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -5371,7 +5379,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>9:4172</t>
+          <t xml:space="preserve">9:1429  </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -5401,14 +5409,14 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
+          <t>89.5</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>32.0</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>61.67</t>
-        </is>
-      </c>
       <c r="O26" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -5416,12 +5424,12 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>19440623</t>
+          <t>19570301</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>19440701</t>
+          <t>19591231</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -5496,7 +5504,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>[85, 117]</t>
+          <t>[106, 107]</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
@@ -5546,7 +5554,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>era5.1761.conv.9:1212</t>
+          <t>era5.1761.conv.2:24110</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5556,7 +5564,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-20888-0-9:1212</t>
+          <t>0-20888-0-2:24110</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5569,7 +5577,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>9:1212</t>
+          <t xml:space="preserve">2:24110 </t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -5599,12 +5607,12 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>84.5</t>
+          <t>-118.68</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>44.38</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -5614,12 +5622,12 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>19570301</t>
+          <t>19440505</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>19591231</t>
+          <t>19441107</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -5744,17 +5752,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:23212</t>
+          <t>era5.1761.conv.2:13808</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-20666-0-2:23212</t>
+          <t>0-20888-0-2:13808</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -5767,7 +5775,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2:23212</t>
+          <t xml:space="preserve">2:13808 </t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -5795,8 +5803,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>-83.67</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>30.43</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -5804,12 +5820,12 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>19440825</t>
+          <t>19420511</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>19440825</t>
+          <t>19441101</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -5934,17 +5950,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>era5.1761.conv.9:1214</t>
+          <t>era5.1761.conv.2:12825</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-20888-0-9:1214</t>
+          <t>0-20666-0-2:12825</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -5957,7 +5973,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>9:1214</t>
+          <t xml:space="preserve">2:12825 </t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -5985,16 +6001,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>86.57</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>42.05</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -6002,12 +6010,12 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>19570301</t>
+          <t>19440511</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>19591231</t>
+          <t>19451023</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -6132,17 +6140,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>era5.1761.conv.9:520</t>
+          <t>era5.1761.conv.2:12902</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-20888-0-9:520</t>
+          <t>0-20666-0-2:12902</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -6155,7 +6163,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>9:520</t>
+          <t xml:space="preserve">2:12902 </t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -6183,16 +6191,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>-155.43</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>64.73</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -6200,12 +6200,12 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>19410407</t>
+          <t>19331110</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>19420831</t>
+          <t>19350930</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -6330,17 +6330,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:91162</t>
+          <t>era5.1761.conv.9:1214</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-20777-0-1:91162</t>
+          <t>0-20888-0-9:1214</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -6353,7 +6353,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1:91162</t>
+          <t xml:space="preserve">9:1214  </t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -6383,12 +6383,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>[-158.22, -158.22]</t>
+          <t>86.57</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>[22.03, 22.03]</t>
+          <t>42.05</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -6398,12 +6398,12 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>19421126</t>
+          <t>19570301</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>19460124</t>
+          <t>19591231</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>9:1223</t>
+          <t xml:space="preserve">9:1223  </t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -6726,17 +6726,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:24206</t>
+          <t>era5.1761.conv.2:24175</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-20666-0-2:24206</t>
+          <t>0-20888-0-2:24175</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2:24206</t>
+          <t xml:space="preserve">2:24175 </t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -6777,8 +6777,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>-110.12</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>40.77</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -6786,12 +6794,12 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>19440807</t>
+          <t>19240401</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>19441201</t>
+          <t>19280430</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -6916,17 +6924,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:21502</t>
+          <t>era5.1761.conv.2:13833</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-20777-0-2:21502</t>
+          <t>0-20888-0-2:13833</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -6939,7 +6947,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2:21502</t>
+          <t xml:space="preserve">2:13833 </t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -6969,12 +6977,12 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>[-154.32, -154.32]</t>
+          <t>-88.75</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>[18.92, 18.92]</t>
+          <t>31.25</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -6984,12 +6992,12 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>19400305</t>
+          <t>19430116</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>19401011</t>
+          <t>19441221</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -7114,7 +7122,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>era5.1761.conv.9:3114</t>
+          <t>era5.1761.conv.9:1212</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7124,7 +7132,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-20888-0-9:3114</t>
+          <t>0-20888-0-9:1212</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -7137,7 +7145,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>9:3114</t>
+          <t xml:space="preserve">9:1212  </t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -7167,12 +7175,12 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>84.5</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>44.38</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -7182,12 +7190,12 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>19440801</t>
+          <t>19570301</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>19450512</t>
+          <t>19591231</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -7312,7 +7320,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>era5.1761.conv.9:2070</t>
+          <t>era5.1761.conv.9:2068</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7322,7 +7330,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-20888-0-9:2070</t>
+          <t>0-20888-0-9:2068</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -7335,7 +7343,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>9:2070</t>
+          <t xml:space="preserve">9:2068  </t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -7365,12 +7373,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>119.12</t>
+          <t>117.1</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>28.1</t>
+          <t>28.28</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -7380,12 +7388,12 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>19560821</t>
+          <t>19560820</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>19591231</t>
+          <t>19580824</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -7510,17 +7518,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:23214</t>
+          <t>era5.1761.conv.9:1339</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-20777-0-2:23214</t>
+          <t>0-20888-0-9:1339</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -7533,7 +7541,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2:23214</t>
+          <t xml:space="preserve">9:1339  </t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -7563,12 +7571,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>[-120.77, -120.77]</t>
+          <t>-65.92</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>[37.9, 37.9]</t>
+          <t>-38.13</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -7578,12 +7586,12 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>19430102</t>
+          <t>19541019</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>19450331</t>
+          <t>19581026</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -7708,17 +7716,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13833</t>
+          <t>era5.1761.conv.2:12819</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-20777-0-2:13833</t>
+          <t>0-20888-0-2:12819</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -7731,7 +7739,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2:13833</t>
+          <t xml:space="preserve">2:12819 </t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -7761,12 +7769,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>[-88.75, -88.75]</t>
+          <t>-80.2</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>[31.25, 31.25]</t>
+          <t>28.82</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -7776,12 +7784,12 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>19430116</t>
+          <t>19180927</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>19441221</t>
+          <t>19440309</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -7906,7 +7914,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:23139</t>
+          <t>era5.1761.conv.2:13859</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -7916,7 +7924,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-20666-0-2:23139</t>
+          <t>0-20666-0-2:13859</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -7929,7 +7937,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2:23139</t>
+          <t xml:space="preserve">2:13859 </t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -7966,12 +7974,12 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>19440601</t>
+          <t>19430311</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>19440829</t>
+          <t>19450131</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -8096,17 +8104,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:26608</t>
+          <t>era5.1761.conv.9:1296</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-20777-0-2:26608</t>
+          <t>0-20888-0-9:1296</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -8119,7 +8127,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2:26608</t>
+          <t xml:space="preserve">9:1296  </t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -8149,12 +8157,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>[-159.22, -159.22]</t>
+          <t>145.18</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>[63.9, 63.9]</t>
+          <t>15.45</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -8164,12 +8172,12 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>19430701</t>
+          <t>19421028</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>19451114</t>
+          <t>19441126</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -8299,12 +8307,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-20777-0-2:14719</t>
+          <t>0-20888-0-2:14719</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -8317,7 +8325,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2:14719</t>
+          <t xml:space="preserve">2:14719 </t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -8347,12 +8355,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>[-71.38, -71.38]</t>
+          <t>-71.38</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>[40.83, 40.83]</t>
+          <t>40.83</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -8492,17 +8500,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:23031</t>
+          <t>era5.1761.conv.9:1329</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-20777-0-2:23031</t>
+          <t>0-20888-0-9:1329</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -8515,7 +8523,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2:23031</t>
+          <t xml:space="preserve">9:1329  </t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -8545,12 +8553,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>[-107.3, -107.3]</t>
+          <t>-58.1</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>[32.33, 32.33]</t>
+          <t>-29.22</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -8560,12 +8568,12 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>19280629</t>
+          <t>19460101</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>19350930</t>
+          <t>19550606</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -8690,7 +8698,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13809</t>
+          <t>era5.1761.conv.2:13923</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8700,7 +8708,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-20666-0-2:13809</t>
+          <t>0-20666-0-2:13923</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -8713,7 +8721,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2:13809</t>
+          <t xml:space="preserve">2:13923 </t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -8750,12 +8758,12 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>19430308</t>
+          <t>19420410</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>19450131</t>
+          <t>19520625</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -8830,7 +8838,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>[106, 107]</t>
+          <t>[85, 106, 107, 117]</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
@@ -8880,17 +8888,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13859</t>
+          <t>era5.1761.conv.2:23214</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-20666-0-2:13859</t>
+          <t>0-20888-0-2:23214</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -8903,7 +8911,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2:13859</t>
+          <t xml:space="preserve">2:23214 </t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8931,8 +8939,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>-120.77</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>37.9</t>
+        </is>
+      </c>
       <c r="O44" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -8940,12 +8956,12 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>19430311</t>
+          <t>19430102</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>19450131</t>
+          <t>19450331</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -9093,7 +9109,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>9:1772</t>
+          <t xml:space="preserve">9:1772  </t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -9268,17 +9284,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:42970</t>
+          <t>era5.1761.conv.1:91162</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0-20777-0-1:42970</t>
+          <t>0-20888-0-1:91162</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -9291,7 +9307,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1:42970</t>
+          <t xml:space="preserve">1:91162 </t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -9321,12 +9337,12 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>[85.93, 85.93]</t>
+          <t>-158.22</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>[20.8, 20.8]</t>
+          <t>22.03</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -9336,12 +9352,12 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>19540101</t>
+          <t>19421126</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>19600623</t>
+          <t>19460124</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -9466,7 +9482,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>era5.1761.conv.9:3871</t>
+          <t>era5.1761.conv.9:2070</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9476,7 +9492,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0-20888-0-9:3871</t>
+          <t>0-20888-0-9:2070</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -9489,7 +9505,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>9:3871</t>
+          <t xml:space="preserve">9:2070  </t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -9519,12 +9535,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>119.68</t>
+          <t>119.12</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>53.38</t>
+          <t>28.1</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -9534,12 +9550,12 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>19530303</t>
+          <t>19560821</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>19561231</t>
+          <t>19591231</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -9614,7 +9630,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>[85, 117]</t>
+          <t>[106, 107]</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
@@ -9664,7 +9680,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:93852</t>
+          <t>era5.1761.conv.2:26608</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9674,7 +9690,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-20888-0-2:93852</t>
+          <t>0-20888-0-2:26608</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -9687,7 +9703,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2:93852</t>
+          <t xml:space="preserve">2:26608 </t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -9717,12 +9733,12 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>-80.35</t>
+          <t>-159.22</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>30.33</t>
+          <t>63.9</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -9732,12 +9748,12 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>19261022</t>
+          <t>19430701</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>19301101</t>
+          <t>19451114</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -9862,17 +9878,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13923</t>
+          <t>era5.1761.conv.1:42970</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0-20666-0-2:13923</t>
+          <t>0-20888-0-1:42970</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -9885,7 +9901,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2:13923</t>
+          <t xml:space="preserve">1:42970 </t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -9913,8 +9929,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>20.8</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -9922,12 +9946,12 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>19420410</t>
+          <t>19540101</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>19520625</t>
+          <t>19600623</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -10002,7 +10026,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>[85, 106, 107, 117]</t>
+          <t>[106, 107]</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr">
@@ -10052,17 +10076,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>era5.1761.conv.9:2068</t>
+          <t>era5.1761.conv.2:13927</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0-20888-0-9:2068</t>
+          <t>0-20666-0-2:13927</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -10075,7 +10099,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>9:2068</t>
+          <t xml:space="preserve">2:13927 </t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -10103,16 +10127,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>117.1</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>28.28</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -10120,12 +10136,12 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>19560820</t>
+          <t>19430117</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>19580824</t>
+          <t>19550430</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -10200,7 +10216,7 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>[106, 107]</t>
+          <t>[85, 106, 107, 117]</t>
         </is>
       </c>
       <c r="AG50" t="inlineStr">
@@ -10250,7 +10266,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:60701</t>
+          <t>era5.1761.conv.2:13804</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10260,7 +10276,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-20888-0-2:60701</t>
+          <t>0-20888-0-2:13804</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -10273,7 +10289,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2:60701</t>
+          <t xml:space="preserve">2:13804 </t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -10303,12 +10319,12 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>-171.72</t>
+          <t>-84.1</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>38.93</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -10318,12 +10334,12 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>19430413</t>
+          <t>19430501</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>19480531</t>
+          <t>19450512</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -10448,7 +10464,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>era5.1761.conv.9:1339</t>
+          <t>era5.1761.conv.2:23031</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10458,7 +10474,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0-20888-0-9:1339</t>
+          <t>0-20888-0-2:23031</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -10471,7 +10487,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>9:1339</t>
+          <t xml:space="preserve">2:23031 </t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -10501,12 +10517,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>-65.92</t>
+          <t>-107.3</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>-38.13</t>
+          <t>32.33</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -10516,12 +10532,12 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>19541019</t>
+          <t>19280629</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>19581026</t>
+          <t>19350930</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -10646,17 +10662,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13711</t>
+          <t>era5.1761.conv.9:2040</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0-20666-0-2:13711</t>
+          <t>0-20888-0-9:2040</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -10669,7 +10685,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2:13711</t>
+          <t xml:space="preserve">9:2040  </t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -10697,8 +10713,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>113.83</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>34.02</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -10706,12 +10730,12 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>19421204</t>
+          <t>19560821</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>19510831</t>
+          <t>19591231</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -10836,7 +10860,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>era5.1761.conv.9:1296</t>
+          <t>era5.1761.conv.2:13809</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -10846,7 +10870,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0-20888-0-9:1296</t>
+          <t>0-20888-0-2:13809</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -10859,7 +10883,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>9:1296</t>
+          <t xml:space="preserve">2:13809 </t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -10889,12 +10913,12 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>145.18</t>
+          <t>-86.4</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>15.45</t>
+          <t>38.75</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -10904,12 +10928,12 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>19421028</t>
+          <t>19430308</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>19441126</t>
+          <t>19450131</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -11034,17 +11058,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>era5.1761.conv.9:1329</t>
+          <t>era5.1761.conv.2:12911</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0-20888-0-9:1329</t>
+          <t>0-20666-0-2:12911</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -11057,7 +11081,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>9:1329</t>
+          <t xml:space="preserve">2:12911 </t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -11085,16 +11109,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>-58.1</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>-29.22</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -11102,12 +11118,12 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>19460101</t>
+          <t>19410526</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>19550606</t>
+          <t>19501222</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -11232,17 +11248,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:12819</t>
+          <t>era5.1761.conv.2:60701</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-20777-0-2:12819</t>
+          <t>0-20888-0-2:60701</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -11255,7 +11271,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2:12819</t>
+          <t xml:space="preserve">2:60701 </t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -11285,12 +11301,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>[-80.2, -80.2]</t>
+          <t>-171.72</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>[28.82, 28.82]</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -11300,12 +11316,12 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>19180927</t>
+          <t>19430413</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>19440309</t>
+          <t>19480531</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -11430,7 +11446,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>era5.1761.conv.9:2040</t>
+          <t>era5.1761.conv.9:3705</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11440,7 +11456,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0-20888-0-9:2040</t>
+          <t>0-20888-0-9:3705</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -11453,7 +11469,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>9:2040</t>
+          <t xml:space="preserve">9:3705  </t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -11483,12 +11499,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>113.83</t>
+          <t>-167.0</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>34.02</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -11498,12 +11514,12 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>19560821</t>
+          <t>19520206</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>19591231</t>
+          <t>19530626</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -11578,7 +11594,7 @@
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>[106, 107]</t>
+          <t>[85, 117]</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
@@ -11628,7 +11644,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>era5.1761.conv.9:3705</t>
+          <t>era5.1761.conv.2:13712</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11638,7 +11654,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0-20888-0-9:3705</t>
+          <t>0-20888-0-2:13712</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -11651,7 +11667,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>9:3705</t>
+          <t xml:space="preserve">2:13712 </t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -11681,12 +11697,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>-167.0</t>
+          <t>-76.1</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>34.27</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -11696,12 +11712,12 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>19520206</t>
+          <t>19420706</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>19530626</t>
+          <t>19510827</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -11776,7 +11792,7 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>[85, 117]</t>
+          <t>[106, 107]</t>
         </is>
       </c>
       <c r="AG58" t="inlineStr">
@@ -11826,17 +11842,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72410</t>
+          <t>era5.1761.conv.2:13836</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0-20777-0-1:72410</t>
+          <t>0-20888-0-2:13836</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -11849,7 +11865,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1:72410</t>
+          <t xml:space="preserve">2:13836 </t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -11879,12 +11895,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>[-78.8, -78.8]</t>
+          <t>-82.35</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>[37.33, 37.33]</t>
+          <t>32.7</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -11894,12 +11910,12 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>19440801</t>
+          <t>19420114</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>19471210</t>
+          <t>19441231</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -12024,7 +12040,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>era5.1761.conv.9:2041</t>
+          <t>era5.1761.conv.1:72488</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12034,7 +12050,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0-20888-0-9:2041</t>
+          <t>0-20888-0-1:72488</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -12047,7 +12063,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>9:2041</t>
+          <t xml:space="preserve">1:72488 </t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -12077,12 +12093,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>105.8</t>
+          <t>-118.23</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>32.43</t>
+          <t>39.48</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -12092,12 +12108,12 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>19560820</t>
+          <t>19270718</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>19591231</t>
+          <t>19301231</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -12222,17 +12238,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:12911</t>
+          <t>era5.1761.conv.9:3871</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0-20666-0-2:12911</t>
+          <t>0-20888-0-9:3871</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -12245,7 +12261,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2:12911</t>
+          <t xml:space="preserve">9:3871  </t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -12273,8 +12289,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>119.68</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -12282,12 +12306,12 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>19410526</t>
+          <t>19530303</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>19501222</t>
+          <t>19561231</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -12362,7 +12386,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>[106, 107]</t>
+          <t>[85, 117]</t>
         </is>
       </c>
       <c r="AG61" t="inlineStr">
@@ -12412,17 +12436,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13927</t>
+          <t>era5.1761.conv.1:72410</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0-20666-0-2:13927</t>
+          <t>0-20888-0-1:72410</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -12435,7 +12459,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2:13927</t>
+          <t xml:space="preserve">1:72410 </t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -12463,8 +12487,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>-78.8</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>37.33</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -12472,12 +12504,12 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>19430117</t>
+          <t>19440801</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>19550430</t>
+          <t>19471210</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -12552,7 +12584,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>[85, 106, 107, 117]</t>
+          <t>[106, 107]</t>
         </is>
       </c>
       <c r="AG62" t="inlineStr">
@@ -12602,17 +12634,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:12904</t>
+          <t>era5.1761.conv.2:93852</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0-20666-0-2:12904</t>
+          <t>0-20888-0-2:93852</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -12625,7 +12657,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2:12904</t>
+          <t xml:space="preserve">2:93852 </t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -12653,8 +12685,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>-80.35</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>30.33</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -12662,12 +12702,12 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>19420429</t>
+          <t>19261022</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>19460123</t>
+          <t>19301101</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -12792,17 +12832,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>era5.1761.conv.9:3708</t>
+          <t>era5.1761.conv.2:13711</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0-20888-0-9:3708</t>
+          <t>0-20666-0-2:13711</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -12815,7 +12855,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>9:3708</t>
+          <t xml:space="preserve">2:13711 </t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -12843,16 +12883,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>153.0</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>39.0</t>
-        </is>
-      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -12860,12 +12892,12 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>19500108</t>
+          <t>19421204</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>19531125</t>
+          <t>19510831</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -12940,7 +12972,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>[85, 117]</t>
+          <t>[106, 107]</t>
         </is>
       </c>
       <c r="AG64" t="inlineStr">
@@ -12990,7 +13022,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:12909</t>
+          <t>era5.1761.conv.2:13822</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13000,7 +13032,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0-20666-0-2:12909</t>
+          <t>0-20666-0-2:13822</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -13013,7 +13045,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2:12909</t>
+          <t xml:space="preserve">2:13822 </t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -13050,12 +13082,12 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>19181203</t>
+          <t>19421121</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>19481221</t>
+          <t>19550531</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -13180,17 +13212,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:23133</t>
+          <t>era5.1761.conv.2:12904</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0-20888-0-2:23133</t>
+          <t>0-20666-0-2:12904</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -13203,7 +13235,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2:23133</t>
+          <t xml:space="preserve">2:12904 </t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -13231,16 +13263,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>-113.4</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>32.67</t>
-        </is>
-      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -13248,12 +13272,12 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>19290813</t>
+          <t>19420429</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>19451231</t>
+          <t>19460123</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -13378,17 +13402,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>era5.1761.conv.9:3704</t>
+          <t>era5.1761.conv.1:87345</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0-20888-0-9:3704</t>
+          <t>0-20666-0-1:87345</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -13401,7 +13425,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>9:3704</t>
+          <t xml:space="preserve">1:87345 </t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -13429,16 +13453,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>-145.0</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>27.67</t>
-        </is>
-      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -13446,12 +13462,12 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>19501211</t>
+          <t>19460102</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>19530618</t>
+          <t>19570926</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -13526,7 +13542,7 @@
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>[85, 117]</t>
+          <t>[85, 106, 107, 117]</t>
         </is>
       </c>
       <c r="AG67" t="inlineStr">
@@ -13576,17 +13592,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72488</t>
+          <t>era5.1761.conv.2:13810</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0-20777-0-1:72488</t>
+          <t>0-20666-0-2:13810</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -13599,7 +13615,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1:72488</t>
+          <t xml:space="preserve">2:13810 </t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -13627,16 +13643,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>[-118.23, -118.23]</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>[39.48, 39.48]</t>
-        </is>
-      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -13644,12 +13652,12 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>19270718</t>
+          <t>19280701</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>19301231</t>
+          <t>19450121</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -13774,17 +13782,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13804</t>
+          <t>era5.1761.conv.2:14853</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0-20777-0-2:13804</t>
+          <t>0-20666-0-2:14853</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -13797,7 +13805,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2:13804</t>
+          <t xml:space="preserve">2:14853 </t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -13825,16 +13833,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>[-84.1, -84.1]</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>[38.93, 38.93]</t>
-        </is>
-      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -13842,12 +13842,12 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>19430501</t>
+          <t>19470101</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>19450512</t>
+          <t>19490731</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -13972,17 +13972,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13712</t>
+          <t>era5.1761.conv.2:13916</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0-20666-0-2:13712</t>
+          <t>0-20888-0-2:13916</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -13995,7 +13995,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2:13712</t>
+          <t xml:space="preserve">2:13916 </t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -14023,8 +14023,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>-94.63</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -14032,12 +14040,12 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>19420706</t>
+          <t>19290103</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>19510827</t>
+          <t>19420703</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -14162,17 +14170,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:11602</t>
+          <t>era5.1761.conv.9:3704</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0-20666-0-2:11602</t>
+          <t>0-20888-0-9:3704</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -14185,7 +14193,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2:11602</t>
+          <t xml:space="preserve">9:3704  </t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -14213,8 +14221,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>-145.0</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
       <c r="O71" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -14222,12 +14238,12 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>19410903</t>
+          <t>19501211</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>19481231</t>
+          <t>19530618</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -14302,7 +14318,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>[106, 107]</t>
+          <t>[85, 117]</t>
         </is>
       </c>
       <c r="AG71" t="inlineStr">
@@ -14352,17 +14368,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:23131</t>
+          <t>era5.1761.conv.2:11602</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0-20777-0-2:23131</t>
+          <t>0-20666-0-2:11602</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -14375,7 +14391,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2:23131</t>
+          <t xml:space="preserve">2:11602 </t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -14403,16 +14419,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>[-116.62, -116.62]</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>[34.58, 34.58]</t>
-        </is>
-      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -14420,12 +14428,12 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>19420328</t>
+          <t>19410903</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>19530921</t>
+          <t>19481231</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -14550,17 +14558,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13822</t>
+          <t>era5.1761.conv.9:3708</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0-20666-0-2:13822</t>
+          <t>0-20888-0-9:3708</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -14573,7 +14581,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2:13822</t>
+          <t xml:space="preserve">9:3708  </t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -14601,8 +14609,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
       <c r="O73" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -14610,12 +14626,12 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>19421121</t>
+          <t>19500108</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>19550531</t>
+          <t>19531125</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -14690,7 +14706,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>[106, 107]</t>
+          <t>[85, 117]</t>
         </is>
       </c>
       <c r="AG73" t="inlineStr">
@@ -14740,7 +14756,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:87345</t>
+          <t>era5.1761.conv.2:12909</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -14750,7 +14766,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0-20666-0-1:87345</t>
+          <t>0-20666-0-2:12909</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -14763,7 +14779,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1:87345</t>
+          <t xml:space="preserve">2:12909 </t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -14800,12 +14816,12 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>19460102</t>
+          <t>19181203</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>19570926</t>
+          <t>19481221</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -14880,7 +14896,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>[85, 106, 107, 117]</t>
+          <t>[106, 107]</t>
         </is>
       </c>
       <c r="AG74" t="inlineStr">
@@ -14930,17 +14946,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:14853</t>
+          <t>era5.1761.conv.9:645</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0-20666-0-2:14853</t>
+          <t>0-20888-0-9:645</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -14953,7 +14969,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2:14853</t>
+          <t xml:space="preserve">9:645   </t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -14981,8 +14997,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>-4.3</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
       <c r="O75" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -14990,12 +15014,12 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>19470101</t>
+          <t>19400405</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>19490731</t>
+          <t>19571231</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -15120,7 +15144,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:11607</t>
+          <t>era5.1761.conv.2:13850</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -15130,7 +15154,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0-20666-0-2:11607</t>
+          <t>0-20666-0-2:13850</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -15143,7 +15167,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2:11607</t>
+          <t xml:space="preserve">2:13850 </t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -15180,12 +15204,12 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>19410409</t>
+          <t>19410822</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>19481231</t>
+          <t>19521022</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -15310,17 +15334,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:17802</t>
+          <t>era5.1761.conv.2:23133</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0-20666-0-2:17802</t>
+          <t>0-20888-0-2:23133</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -15333,7 +15357,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2:17802</t>
+          <t xml:space="preserve">2:23133 </t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -15361,8 +15385,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>-113.4</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>32.67</t>
+        </is>
+      </c>
       <c r="O77" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -15370,12 +15402,12 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>19480101</t>
+          <t>19290813</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>19570731</t>
+          <t>19451231</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -15450,7 +15482,7 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>[85, 106, 107, 117]</t>
+          <t>[106, 107]</t>
         </is>
       </c>
       <c r="AG77" t="inlineStr">
@@ -15500,17 +15532,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13836</t>
+          <t>era5.1761.conv.2:23131</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0-20777-0-2:13836</t>
+          <t>0-20888-0-2:23131</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -15523,7 +15555,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2:13836</t>
+          <t xml:space="preserve">2:23131 </t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -15553,12 +15585,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>[-82.35, -82.35]</t>
+          <t>-116.62</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>[32.7, 32.7]</t>
+          <t>34.58</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -15568,12 +15600,12 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>19420114</t>
+          <t>19420328</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>19441231</t>
+          <t>19530921</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -15698,7 +15730,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13916</t>
+          <t>era5.1761.conv.2:12906</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -15708,7 +15740,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0-20666-0-2:13916</t>
+          <t>0-20666-0-2:12906</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -15721,7 +15753,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2:13916</t>
+          <t xml:space="preserve">2:12906 </t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -15758,12 +15790,12 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>19290103</t>
+          <t>19181104</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>19420703</t>
+          <t>19630621</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -15838,7 +15870,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>[106, 107]</t>
+          <t>[85, 106, 107, 117]</t>
         </is>
       </c>
       <c r="AG79" t="inlineStr">
@@ -15888,7 +15920,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>era5.1761.conv.9:645</t>
+          <t>era5.1761.conv.2:22522</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -15898,7 +15930,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0-20888-0-9:645</t>
+          <t>0-20888-0-2:22522</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -15911,7 +15943,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>9:645</t>
+          <t xml:space="preserve">2:22522 </t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -15941,12 +15973,12 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>-4.3</t>
+          <t>-156.13</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>11.67</t>
+          <t>21.32</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -15956,12 +15988,12 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>19400405</t>
+          <t>19460715</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>19571231</t>
+          <t>19480430</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -16086,7 +16118,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13810</t>
+          <t>era5.1761.conv.2:11607</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -16096,7 +16128,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0-20666-0-2:13810</t>
+          <t>0-20666-0-2:11607</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -16109,7 +16141,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2:13810</t>
+          <t xml:space="preserve">2:11607 </t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -16146,12 +16178,12 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>19280701</t>
+          <t>19410409</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>19450121</t>
+          <t>19481231</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -16276,17 +16308,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13850</t>
+          <t>era5.1761.conv.1:25428</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0-20666-0-2:13850</t>
+          <t>0-20888-0-1:25428</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -16299,7 +16331,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2:13850</t>
+          <t xml:space="preserve">1:25428 </t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -16327,8 +16359,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>159.7</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
       <c r="O82" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -16336,12 +16376,12 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>19410822</t>
+          <t>19571111</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>19521022</t>
+          <t>19790520</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -16416,7 +16456,7 @@
       </c>
       <c r="AF82" t="inlineStr">
         <is>
-          <t>[106, 107]</t>
+          <t>[85, 117]</t>
         </is>
       </c>
       <c r="AG82" t="inlineStr">
@@ -16466,17 +16506,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:14762</t>
+          <t>era5.1761.conv.2:93804</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0-20666-0-2:14762</t>
+          <t>0-20888-0-2:93804</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -16489,7 +16529,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2:14762</t>
+          <t xml:space="preserve">2:93804 </t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -16517,8 +16557,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>-80.05</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
       <c r="O83" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -16526,12 +16574,12 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>19340118</t>
+          <t>19320622</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>19520930</t>
+          <t>19471231</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -16656,7 +16704,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:23043</t>
+          <t>era5.1761.conv.2:14752</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -16666,7 +16714,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0-20666-0-2:23043</t>
+          <t>0-20666-0-2:14752</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -16679,7 +16727,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2:23043</t>
+          <t xml:space="preserve">2:14752 </t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -16716,12 +16764,12 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>19400330</t>
+          <t>19390624</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>19590331</t>
+          <t>19540731</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -16846,7 +16894,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72544</t>
+          <t>era5.1761.conv.2:17802</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -16856,7 +16904,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0-20666-0-1:72544</t>
+          <t>0-20666-0-2:17802</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -16869,7 +16917,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1:72544</t>
+          <t xml:space="preserve">2:17802 </t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -16906,12 +16954,12 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>19261101</t>
+          <t>19480101</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>19590330</t>
+          <t>19570731</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -16986,7 +17034,7 @@
       </c>
       <c r="AF85" t="inlineStr">
         <is>
-          <t>[106, 107]</t>
+          <t>[85, 106, 107, 117]</t>
         </is>
       </c>
       <c r="AG85" t="inlineStr">
@@ -17036,17 +17084,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:12858</t>
+          <t>era5.1761.conv.1:72306</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0-20888-0-2:12858</t>
+          <t>0-20666-0-1:72306</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -17059,7 +17107,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2:12858</t>
+          <t xml:space="preserve">1:72306 </t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -17087,16 +17135,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>-80.2</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>24.55</t>
-        </is>
-      </c>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -17104,12 +17144,12 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>19191101</t>
+          <t>19410113</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>19570531</t>
+          <t>19590330</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -17234,7 +17274,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72550</t>
+          <t>era5.1761.conv.2:23177</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -17244,7 +17284,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0-20666-0-1:72550</t>
+          <t>0-20666-0-2:23177</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -17257,7 +17297,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1:72550</t>
+          <t xml:space="preserve">2:23177 </t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -17294,12 +17334,12 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>19260521</t>
+          <t>19270730</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>19540916</t>
+          <t>19480718</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -17374,7 +17414,7 @@
       </c>
       <c r="AF87" t="inlineStr">
         <is>
-          <t>[85, 106, 107, 117]</t>
+          <t>[106, 107]</t>
         </is>
       </c>
       <c r="AG87" t="inlineStr">
@@ -17424,7 +17464,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:12906</t>
+          <t>era5.1761.conv.2:14762</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -17434,7 +17474,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0-20666-0-2:12906</t>
+          <t>0-20666-0-2:14762</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -17447,7 +17487,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2:12906</t>
+          <t xml:space="preserve">2:14762 </t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -17484,12 +17524,12 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>19181104</t>
+          <t>19340118</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>19630621</t>
+          <t>19520930</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -17564,7 +17604,7 @@
       </c>
       <c r="AF88" t="inlineStr">
         <is>
-          <t>[85, 106, 107, 117]</t>
+          <t>[106, 107]</t>
         </is>
       </c>
       <c r="AG88" t="inlineStr">
@@ -17614,7 +17654,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72356</t>
+          <t>era5.1761.conv.1:72214</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -17624,7 +17664,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0-20666-0-1:72356</t>
+          <t>0-20666-0-1:72214</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -17637,7 +17677,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1:72356</t>
+          <t xml:space="preserve">1:72214 </t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -17674,12 +17714,12 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>19310529</t>
+          <t>19400516</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>19590331</t>
+          <t>19590630</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -17804,7 +17844,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13988</t>
+          <t>era5.1761.conv.1:70291</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -17814,7 +17854,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0-20666-0-2:13988</t>
+          <t>0-20666-0-1:70291</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -17827,7 +17867,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2:13988</t>
+          <t xml:space="preserve">1:70291 </t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -17864,12 +17904,12 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>19260907</t>
+          <t>19421001</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>19490831</t>
+          <t>19570731</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -17944,7 +17984,7 @@
       </c>
       <c r="AF90" t="inlineStr">
         <is>
-          <t>[106, 107]</t>
+          <t>[85, 106, 107, 117]</t>
         </is>
       </c>
       <c r="AG90" t="inlineStr">
@@ -17994,17 +18034,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13998</t>
+          <t>era5.1761.conv.2:22504</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0-20666-0-2:13998</t>
+          <t>0-20888-0-2:22504</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -18017,7 +18057,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2:13998</t>
+          <t xml:space="preserve">2:22504 </t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -18045,8 +18085,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>-156.05</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
       <c r="O91" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -18054,12 +18102,12 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>19371201</t>
+          <t>19380827</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>19540816</t>
+          <t>19530515</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -18134,7 +18182,7 @@
       </c>
       <c r="AF91" t="inlineStr">
         <is>
-          <t>[106, 107]</t>
+          <t>[85, 106, 107, 117]</t>
         </is>
       </c>
       <c r="AG91" t="inlineStr">
@@ -18184,17 +18232,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:93804</t>
+          <t>era5.1761.conv.1:72440</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0-20777-0-2:93804</t>
+          <t>0-20666-0-1:72440</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -18207,7 +18255,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2:93804</t>
+          <t xml:space="preserve">1:72440 </t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -18235,16 +18283,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>[-80.05, -80.05]</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>[34.92, 34.92]</t>
-        </is>
-      </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -18252,12 +18292,12 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>19320622</t>
+          <t>19390519</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>19471231</t>
+          <t>19590331</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -18382,7 +18422,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13860</t>
+          <t>era5.1761.conv.1:72356</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -18392,7 +18432,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0-20666-0-2:13860</t>
+          <t>0-20666-0-1:72356</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -18405,7 +18445,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2:13860</t>
+          <t xml:space="preserve">1:72356 </t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -18442,12 +18482,12 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>19430110</t>
+          <t>19310529</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>19540430</t>
+          <t>19590331</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -18522,7 +18562,7 @@
       </c>
       <c r="AF93" t="inlineStr">
         <is>
-          <t>[85, 106, 107, 117]</t>
+          <t>[106, 107]</t>
         </is>
       </c>
       <c r="AG93" t="inlineStr">
@@ -18572,17 +18612,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:24035</t>
+          <t>era5.1761.conv.2:25602</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0-20666-0-2:24035</t>
+          <t>0-20888-0-2:25602</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -18595,7 +18635,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2:24035</t>
+          <t xml:space="preserve">2:25602 </t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -18623,8 +18663,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>-166.1</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
       <c r="O94" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -18632,12 +18680,12 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>19270807</t>
+          <t>19430103</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>19590331</t>
+          <t>19501120</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -18712,7 +18760,7 @@
       </c>
       <c r="AF94" t="inlineStr">
         <is>
-          <t>[106, 107]</t>
+          <t>[85, 106, 107, 117]</t>
         </is>
       </c>
       <c r="AG94" t="inlineStr">
@@ -18762,7 +18810,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:14752</t>
+          <t>era5.1761.conv.1:72544</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -18772,7 +18820,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0-20666-0-2:14752</t>
+          <t>0-20666-0-1:72544</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -18785,7 +18833,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2:14752</t>
+          <t xml:space="preserve">1:72544 </t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -18822,12 +18870,12 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>19390624</t>
+          <t>19261101</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>19540731</t>
+          <t>19590330</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -18952,17 +19000,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:22522</t>
+          <t>era5.1761.conv.2:23193</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0-20777-0-2:22522</t>
+          <t>0-20666-0-2:23193</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -18975,7 +19023,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2:22522</t>
+          <t xml:space="preserve">2:23193 </t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -19003,16 +19051,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>[-156.13, -156.13]</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>[21.32, 21.32]</t>
-        </is>
-      </c>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -19020,12 +19060,12 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>19460715</t>
+          <t>19321203</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>19480430</t>
+          <t>19481014</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -19150,7 +19190,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:24129</t>
+          <t>era5.1761.conv.1:72381</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -19160,7 +19200,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0-20888-0-2:24129</t>
+          <t>0-20888-0-1:72381</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -19173,7 +19213,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2:24129</t>
+          <t xml:space="preserve">1:72381 </t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -19203,12 +19243,12 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>-116.28</t>
+          <t>-116.13</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>40.97</t>
+          <t>34.9</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -19218,12 +19258,12 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>19351221</t>
+          <t>19411221</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>19490930</t>
+          <t>19791221</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -19298,7 +19338,7 @@
       </c>
       <c r="AF97" t="inlineStr">
         <is>
-          <t>[106, 107]</t>
+          <t>[85, 106, 107, 117]</t>
         </is>
       </c>
       <c r="AG97" t="inlineStr">
@@ -19348,7 +19388,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:25602</t>
+          <t>era5.1761.conv.2:13860</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -19358,7 +19398,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0-20888-0-2:25602</t>
+          <t>0-20888-0-2:13860</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -19371,7 +19411,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2:25602</t>
+          <t xml:space="preserve">2:13860 </t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -19401,12 +19441,12 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>-166.1</t>
+          <t>-82.4</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>53.38</t>
+          <t>32.63</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -19416,12 +19456,12 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>19430103</t>
+          <t>19430110</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>19501120</t>
+          <t>19540430</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -19546,7 +19586,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72666</t>
+          <t>era5.1761.conv.2:13920</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -19556,7 +19596,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0-20666-0-1:72666</t>
+          <t>0-20666-0-2:13920</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -19569,7 +19609,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1:72666</t>
+          <t xml:space="preserve">2:13920 </t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -19606,12 +19646,12 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>19270804</t>
+          <t>19430129</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>19590331</t>
+          <t>19550929</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -19686,7 +19726,7 @@
       </c>
       <c r="AF99" t="inlineStr">
         <is>
-          <t>[106, 107]</t>
+          <t>[85, 106, 107, 117]</t>
         </is>
       </c>
       <c r="AG99" t="inlineStr">
@@ -19736,7 +19776,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:22504</t>
+          <t>era5.1761.conv.1:72426</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -19746,7 +19786,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0-20666-0-2:22504</t>
+          <t>0-20666-0-1:72426</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -19759,7 +19799,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2:22504</t>
+          <t xml:space="preserve">1:72426 </t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -19796,12 +19836,12 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>19380827</t>
+          <t>19431223</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>19530515</t>
+          <t>19791231</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -19926,7 +19966,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72374</t>
+          <t>era5.1761.conv.1:72434</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -19936,7 +19976,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0-20666-0-1:72374</t>
+          <t>0-20666-0-1:72434</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -19949,7 +19989,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>1:72374</t>
+          <t xml:space="preserve">1:72434 </t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -19986,12 +20026,12 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>19311129</t>
+          <t>19290718</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>19631231</t>
+          <t>19590331</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -20116,17 +20156,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:25428</t>
+          <t>era5.1761.conv.2:23017</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0-20777-0-1:25428</t>
+          <t>0-20888-0-2:23017</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -20139,7 +20179,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>1:25428</t>
+          <t xml:space="preserve">2:23017 </t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -20169,12 +20209,12 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>[159.7, 159.7]</t>
+          <t>-99.6</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>[65.0, 65.0]</t>
+          <t>31.4</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -20184,12 +20224,12 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>19571111</t>
+          <t>19411106</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>19790520</t>
+          <t>19710127</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -20264,7 +20304,7 @@
       </c>
       <c r="AF102" t="inlineStr">
         <is>
-          <t>[85, 117]</t>
+          <t>[85, 106, 107, 117]</t>
         </is>
       </c>
       <c r="AG102" t="inlineStr">
@@ -20314,17 +20354,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72572</t>
+          <t>era5.1761.conv.2:24129</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0-20666-0-1:72572</t>
+          <t>0-20888-0-2:24129</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -20337,7 +20377,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>1:72572</t>
+          <t xml:space="preserve">2:24129 </t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -20365,8 +20405,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>-116.28</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>40.97</t>
+        </is>
+      </c>
       <c r="O103" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -20374,12 +20422,12 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>19280501</t>
+          <t>19351221</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>19791231</t>
+          <t>19490930</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -20454,7 +20502,7 @@
       </c>
       <c r="AF103" t="inlineStr">
         <is>
-          <t>[85, 106, 107, 117]</t>
+          <t>[106, 107]</t>
         </is>
       </c>
       <c r="AG103" t="inlineStr">
@@ -20504,7 +20552,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13920</t>
+          <t>era5.1761.conv.2:14751</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -20514,7 +20562,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0-20666-0-2:13920</t>
+          <t>0-20666-0-2:14751</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -20527,7 +20575,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2:13920</t>
+          <t xml:space="preserve">2:14751 </t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -20564,12 +20612,12 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>19430129</t>
+          <t>19381101</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>19550929</t>
+          <t>19590330</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -20644,7 +20692,7 @@
       </c>
       <c r="AF104" t="inlineStr">
         <is>
-          <t>[85, 106, 107, 117]</t>
+          <t>[106, 107]</t>
         </is>
       </c>
       <c r="AG104" t="inlineStr">
@@ -20694,7 +20742,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72214</t>
+          <t>era5.1761.conv.1:72231</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -20704,7 +20752,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0-20666-0-1:72214</t>
+          <t>0-20666-0-1:72231</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -20717,7 +20765,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>1:72214</t>
+          <t xml:space="preserve">1:72231 </t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -20754,12 +20802,12 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>19400516</t>
+          <t>19261021</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>19590630</t>
+          <t>19570420</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -20834,7 +20882,7 @@
       </c>
       <c r="AF105" t="inlineStr">
         <is>
-          <t>[106, 107]</t>
+          <t>[85, 106, 107, 117]</t>
         </is>
       </c>
       <c r="AG105" t="inlineStr">
@@ -20884,7 +20932,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72426</t>
+          <t>era5.1761.conv.2:23068</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -20894,7 +20942,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0-20666-0-1:72426</t>
+          <t>0-20666-0-2:23068</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -20907,7 +20955,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>1:72426</t>
+          <t xml:space="preserve">2:23068 </t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -20944,12 +20992,12 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>19431223</t>
+          <t>19390328</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>19791231</t>
+          <t>19560531</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -21024,7 +21072,7 @@
       </c>
       <c r="AF106" t="inlineStr">
         <is>
-          <t>[85, 106, 107, 117]</t>
+          <t>[106, 107]</t>
         </is>
       </c>
       <c r="AG106" t="inlineStr">
@@ -21074,7 +21122,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:12918</t>
+          <t>era5.1761.conv.2:14849</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -21084,7 +21132,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0-20666-0-2:12918</t>
+          <t>0-20666-0-2:14849</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -21097,7 +21145,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2:12918</t>
+          <t xml:space="preserve">2:14849 </t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -21134,12 +21182,12 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>19310720</t>
+          <t>19390623</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>19550608</t>
+          <t>19590331</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -21214,7 +21262,7 @@
       </c>
       <c r="AF107" t="inlineStr">
         <is>
-          <t>[106, 107]</t>
+          <t>[85, 106, 107, 117]</t>
         </is>
       </c>
       <c r="AG107" t="inlineStr">
@@ -21264,17 +21312,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:70291</t>
+          <t>era5.1761.conv.2:12858</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0-20666-0-1:70291</t>
+          <t>0-20888-0-2:12858</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -21287,7 +21335,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>1:70291</t>
+          <t xml:space="preserve">2:12858 </t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -21315,8 +21363,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>-80.2</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
       <c r="O108" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -21324,12 +21380,12 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>19421001</t>
+          <t>19191101</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>19570731</t>
+          <t>19570531</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -21404,7 +21460,7 @@
       </c>
       <c r="AF108" t="inlineStr">
         <is>
-          <t>[85, 106, 107, 117]</t>
+          <t>[106, 107]</t>
         </is>
       </c>
       <c r="AG108" t="inlineStr">
@@ -21454,7 +21510,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:14751</t>
+          <t>era5.1761.conv.2:13988</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -21464,7 +21520,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0-20666-0-2:14751</t>
+          <t>0-20666-0-2:13988</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -21477,7 +21533,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2:14751</t>
+          <t xml:space="preserve">2:13988 </t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -21514,12 +21570,12 @@
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>19381101</t>
+          <t>19260907</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>19590330</t>
+          <t>19490831</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -21644,7 +21700,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72562</t>
+          <t>era5.1761.conv.1:72666</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -21654,7 +21710,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0-20666-0-1:72562</t>
+          <t>0-20666-0-1:72666</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -21667,7 +21723,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>1:72562</t>
+          <t xml:space="preserve">1:72666 </t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -21704,12 +21760,12 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>19301030</t>
+          <t>19270804</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>19791231</t>
+          <t>19590331</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -21784,7 +21840,7 @@
       </c>
       <c r="AF110" t="inlineStr">
         <is>
-          <t>[85, 106, 107, 117]</t>
+          <t>[106, 107]</t>
         </is>
       </c>
       <c r="AG110" t="inlineStr">
@@ -21834,7 +21890,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:23177</t>
+          <t>era5.1761.conv.2:23043</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -21844,7 +21900,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0-20666-0-2:23177</t>
+          <t>0-20666-0-2:23043</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -21857,7 +21913,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2:23177</t>
+          <t xml:space="preserve">2:23043 </t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -21894,12 +21950,12 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>19270730</t>
+          <t>19400330</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>19480718</t>
+          <t>19590331</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -22024,17 +22080,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72253</t>
+          <t>era5.1761.conv.1:72550</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0-20666-0-1:72253</t>
+          <t>0-20888-0-1:72550</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -22047,7 +22103,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>1:72253</t>
+          <t xml:space="preserve">1:72550 </t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -22075,8 +22131,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>-94.12</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>41.3</t>
+        </is>
+      </c>
       <c r="O112" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -22084,12 +22148,12 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>19390422</t>
+          <t>19260521</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>19660620</t>
+          <t>19540916</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
@@ -22214,7 +22278,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72434</t>
+          <t>era5.1761.conv.2:13998</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -22224,7 +22288,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0-20666-0-1:72434</t>
+          <t>0-20666-0-2:13998</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -22237,7 +22301,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>1:72434</t>
+          <t xml:space="preserve">2:13998 </t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -22274,12 +22338,12 @@
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>19290718</t>
+          <t>19371201</t>
         </is>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>19590331</t>
+          <t>19540816</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
@@ -22404,7 +22468,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72734</t>
+          <t>era5.1761.conv.2:12918</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -22414,7 +22478,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0-20666-0-1:72734</t>
+          <t>0-20666-0-2:12918</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -22427,7 +22491,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>1:72734</t>
+          <t xml:space="preserve">2:12918 </t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -22464,12 +22528,12 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>19261101</t>
+          <t>19310720</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>19791231</t>
+          <t>19550608</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -22544,7 +22608,7 @@
       </c>
       <c r="AF114" t="inlineStr">
         <is>
-          <t>[85, 106, 107, 117]</t>
+          <t>[106, 107]</t>
         </is>
       </c>
       <c r="AG114" t="inlineStr">
@@ -22594,7 +22658,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72306</t>
+          <t>era5.1761.conv.2:12920</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -22604,7 +22668,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0-20666-0-1:72306</t>
+          <t>0-20666-0-2:12920</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -22617,7 +22681,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>1:72306</t>
+          <t xml:space="preserve">2:12920 </t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -22654,12 +22718,12 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>19410113</t>
+          <t>19430616</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>19590330</t>
+          <t>19591231</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -22784,17 +22848,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:12863</t>
+          <t>era5.1761.conv.2:24035</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0-20666-0-2:12863</t>
+          <t>0-20888-0-2:24035</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -22807,7 +22871,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2:12863</t>
+          <t xml:space="preserve">2:24035 </t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -22835,8 +22899,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>-108.33</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>48.57</t>
+        </is>
+      </c>
       <c r="O116" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -22844,12 +22916,12 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>19420803</t>
+          <t>19270807</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>19650212</t>
+          <t>19590331</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -22924,7 +22996,7 @@
       </c>
       <c r="AF116" t="inlineStr">
         <is>
-          <t>[85, 106, 107, 117]</t>
+          <t>[106, 107]</t>
         </is>
       </c>
       <c r="AG116" t="inlineStr">
@@ -22974,7 +23046,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13963</t>
+          <t>era5.1761.conv.1:70133</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -22984,7 +23056,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0-20666-0-2:13963</t>
+          <t>0-20666-0-1:70133</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -22997,7 +23069,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2:13963</t>
+          <t xml:space="preserve">1:70133 </t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -23034,7 +23106,7 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>19390315</t>
+          <t>19421023</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
@@ -23164,7 +23236,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72606</t>
+          <t>era5.1761.conv.2:13802</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -23174,7 +23246,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0-20666-0-1:72606</t>
+          <t>0-20666-0-2:13802</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -23187,7 +23259,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>1:72606</t>
+          <t xml:space="preserve">2:13802 </t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -23224,12 +23296,12 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>19401025</t>
+          <t>19220119</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>19791231</t>
+          <t>19590930</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
@@ -23354,17 +23426,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72221</t>
+          <t>era5.1761.conv.1:72374</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0-20777-0-1:72221</t>
+          <t>0-20666-0-1:72374</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -23377,7 +23449,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>1:72221</t>
+          <t xml:space="preserve">1:72374 </t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -23405,16 +23477,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>[-85.48, -85.48]</t>
-        </is>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>[30.48, 30.48]</t>
-        </is>
-      </c>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -23422,12 +23486,12 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>19381101</t>
+          <t>19311129</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>19641231</t>
+          <t>19631231</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -23552,7 +23616,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72231</t>
+          <t>era5.1761.conv.1:72606</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -23562,7 +23626,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0-20666-0-1:72231</t>
+          <t>0-20666-0-1:72606</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -23575,7 +23639,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>1:72231</t>
+          <t xml:space="preserve">1:72606 </t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -23612,12 +23676,12 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>19261021</t>
+          <t>19401025</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>19570420</t>
+          <t>19791231</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -23742,7 +23806,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72440</t>
+          <t>era5.1761.conv.2:14717</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -23752,7 +23816,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0-20666-0-1:72440</t>
+          <t>0-20666-0-2:14717</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -23765,7 +23829,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>1:72440</t>
+          <t xml:space="preserve">2:14717 </t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -23802,12 +23866,12 @@
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>19390519</t>
+          <t>19430301</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>19590331</t>
+          <t>19551011</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -23882,7 +23946,7 @@
       </c>
       <c r="AF121" t="inlineStr">
         <is>
-          <t>[106, 107]</t>
+          <t>[85, 106, 107, 117]</t>
         </is>
       </c>
       <c r="AG121" t="inlineStr">
@@ -23932,7 +23996,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:23193</t>
+          <t>era5.1761.conv.1:72572</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -23942,7 +24006,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0-20666-0-2:23193</t>
+          <t>0-20666-0-1:72572</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -23955,7 +24019,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2:23193</t>
+          <t xml:space="preserve">1:72572 </t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -23992,12 +24056,12 @@
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>19321203</t>
+          <t>19280501</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>19481014</t>
+          <t>19791231</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -24072,7 +24136,7 @@
       </c>
       <c r="AF122" t="inlineStr">
         <is>
-          <t>[106, 107]</t>
+          <t>[85, 106, 107, 117]</t>
         </is>
       </c>
       <c r="AG122" t="inlineStr">
@@ -24122,7 +24186,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72202</t>
+          <t>era5.1761.conv.1:72394</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -24132,7 +24196,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0-20666-0-1:72202</t>
+          <t>0-20666-0-1:72394</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -24145,7 +24209,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>1:72202</t>
+          <t xml:space="preserve">1:72394 </t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -24182,7 +24246,7 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>19450101</t>
+          <t>19460101</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr">
@@ -24312,7 +24376,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72381</t>
+          <t>era5.1761.conv.1:72265</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -24322,7 +24386,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0-20666-0-1:72381</t>
+          <t>0-20666-0-1:72265</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -24335,7 +24399,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>1:72381</t>
+          <t xml:space="preserve">1:72265 </t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -24372,12 +24436,12 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>19411221</t>
+          <t>19300616</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>19791221</t>
+          <t>19791231</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -24502,7 +24566,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72353</t>
+          <t>era5.1761.conv.1:72206</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -24512,7 +24576,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>0-20666-0-1:72353</t>
+          <t>0-20666-0-1:72206</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -24525,7 +24589,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>1:72353</t>
+          <t xml:space="preserve">1:72206 </t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -24562,7 +24626,7 @@
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>19320401</t>
+          <t>19301101</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr">
@@ -24692,7 +24756,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:23068</t>
+          <t>era5.1761.conv.1:72211</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -24702,7 +24766,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0-20666-0-2:23068</t>
+          <t>0-20666-0-1:72211</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -24715,7 +24779,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2:23068</t>
+          <t xml:space="preserve">1:72211 </t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -24752,12 +24816,12 @@
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>19390328</t>
+          <t>19381224</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>19560531</t>
+          <t>19791231</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -24832,7 +24896,7 @@
       </c>
       <c r="AF126" t="inlineStr">
         <is>
-          <t>[106, 107]</t>
+          <t>[85, 106, 107, 117]</t>
         </is>
       </c>
       <c r="AG126" t="inlineStr">
@@ -24882,7 +24946,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:70326</t>
+          <t>era5.1761.conv.1:72253</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -24892,7 +24956,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>0-20666-0-1:70326</t>
+          <t>0-20666-0-1:72253</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -24905,7 +24969,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>1:70326</t>
+          <t xml:space="preserve">1:72253 </t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -24942,12 +25006,12 @@
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>19421112</t>
+          <t>19390422</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>19791231</t>
+          <t>19660620</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -25072,7 +25136,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13956</t>
+          <t>era5.1761.conv.1:72734</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -25082,7 +25146,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0-20666-0-2:13956</t>
+          <t>0-20666-0-1:72734</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -25095,7 +25159,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2:13956</t>
+          <t xml:space="preserve">1:72734 </t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -25132,7 +25196,7 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>19320125</t>
+          <t>19261101</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
@@ -25262,17 +25326,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13745</t>
+          <t>era5.1761.conv.1:72221</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>0-20666-0-2:13745</t>
+          <t>0-20888-0-1:72221</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -25285,7 +25349,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2:13745</t>
+          <t xml:space="preserve">1:72221 </t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -25313,8 +25377,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>-85.48</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>30.48</t>
+        </is>
+      </c>
       <c r="O129" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -25322,12 +25394,12 @@
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>19410823</t>
+          <t>19381101</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>19570228</t>
+          <t>19641231</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -25402,7 +25474,7 @@
       </c>
       <c r="AF129" t="inlineStr">
         <is>
-          <t>[85, 106, 107, 117]</t>
+          <t>[106, 107]</t>
         </is>
       </c>
       <c r="AG129" t="inlineStr">
@@ -25452,7 +25524,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72265</t>
+          <t>era5.1761.conv.2:13745</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -25462,7 +25534,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0-20666-0-1:72265</t>
+          <t>0-20666-0-2:13745</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -25475,7 +25547,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>1:72265</t>
+          <t xml:space="preserve">2:13745 </t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -25512,12 +25584,12 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>19300616</t>
+          <t>19410823</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>19791231</t>
+          <t>19570228</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -25642,17 +25714,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:23017</t>
+          <t>era5.1761.conv.2:24240</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>0-20888-0-2:23017</t>
+          <t>0-20666-0-2:24240</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -25665,7 +25737,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2:23017</t>
+          <t xml:space="preserve">2:24240 </t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -25693,16 +25765,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>-99.6</t>
-        </is>
-      </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>31.4</t>
-        </is>
-      </c>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -25710,12 +25774,12 @@
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>19411106</t>
+          <t>19400501</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>19710127</t>
+          <t>19581231</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -25790,7 +25854,7 @@
       </c>
       <c r="AF131" t="inlineStr">
         <is>
-          <t>[85, 106, 107, 117]</t>
+          <t>[106, 107]</t>
         </is>
       </c>
       <c r="AG131" t="inlineStr">
@@ -25840,7 +25904,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:24240</t>
+          <t>era5.1761.conv.2:13944</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -25850,7 +25914,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>0-20666-0-2:24240</t>
+          <t>0-20666-0-2:13944</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -25863,7 +25927,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2:24240</t>
+          <t xml:space="preserve">2:13944 </t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -25900,12 +25964,12 @@
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>19400501</t>
+          <t>19330125</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>19581231</t>
+          <t>19560110</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -25980,7 +26044,7 @@
       </c>
       <c r="AF132" t="inlineStr">
         <is>
-          <t>[106, 107]</t>
+          <t>[85, 106, 107, 117]</t>
         </is>
       </c>
       <c r="AG132" t="inlineStr">
@@ -26030,7 +26094,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13944</t>
+          <t>era5.1761.conv.2:14804</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -26040,7 +26104,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0-20666-0-2:13944</t>
+          <t>0-20666-0-2:14804</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -26053,7 +26117,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2:13944</t>
+          <t xml:space="preserve">2:14804 </t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -26090,12 +26154,12 @@
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>19330125</t>
+          <t>19190203</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>19560110</t>
+          <t>19560918</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -26220,7 +26284,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:14849</t>
+          <t>era5.1761.conv.1:42182</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -26230,7 +26294,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>0-20666-0-2:14849</t>
+          <t>0-20666-0-1:42182</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -26243,7 +26307,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2:14849</t>
+          <t xml:space="preserve">1:42182 </t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -26280,12 +26344,12 @@
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>19390623</t>
+          <t>19451101</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>19590331</t>
+          <t>19670730</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -26410,17 +26474,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72394</t>
+          <t>era5.1761.conv.1:70326</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0-20666-0-1:72394</t>
+          <t>0-20888-0-1:70326</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -26433,7 +26497,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>1:72394</t>
+          <t xml:space="preserve">1:70326 </t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -26461,8 +26525,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>-155.35</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>58.68</t>
+        </is>
+      </c>
       <c r="O135" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -26470,7 +26542,7 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>19460101</t>
+          <t>19421112</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr">
@@ -26600,7 +26672,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:12920</t>
+          <t>era5.1761.conv.2:13941</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -26610,7 +26682,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>0-20666-0-2:12920</t>
+          <t>0-20666-0-2:13941</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -26623,7 +26695,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2:12920</t>
+          <t xml:space="preserve">2:13941 </t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -26660,12 +26732,12 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>19430616</t>
+          <t>19400520</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>19591231</t>
+          <t>19611231</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -26790,7 +26862,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:70133</t>
+          <t>era5.1761.conv.1:72327</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -26800,7 +26872,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>0-20666-0-1:70133</t>
+          <t>0-20666-0-1:72327</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -26813,7 +26885,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>1:70133</t>
+          <t xml:space="preserve">1:72327 </t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -26850,7 +26922,7 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>19421023</t>
+          <t>19370701</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr">
@@ -26980,7 +27052,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13941</t>
+          <t>era5.1761.conv.1:72562</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -26990,7 +27062,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0-20666-0-2:13941</t>
+          <t>0-20666-0-1:72562</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -27003,7 +27075,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2:13941</t>
+          <t xml:space="preserve">1:72562 </t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -27040,12 +27112,12 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>19400520</t>
+          <t>19301030</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>19611231</t>
+          <t>19791231</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -27120,7 +27192,7 @@
       </c>
       <c r="AF138" t="inlineStr">
         <is>
-          <t>[106, 107]</t>
+          <t>[85, 106, 107, 117]</t>
         </is>
       </c>
       <c r="AG138" t="inlineStr">
@@ -27170,7 +27242,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:14717</t>
+          <t>era5.1761.conv.2:12863</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -27180,7 +27252,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>0-20666-0-2:14717</t>
+          <t>0-20666-0-2:12863</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -27193,7 +27265,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2:14717</t>
+          <t xml:space="preserve">2:12863 </t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -27230,12 +27302,12 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>19430301</t>
+          <t>19420803</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>19551011</t>
+          <t>19650212</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -27360,7 +27432,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:14804</t>
+          <t>era5.1761.conv.1:72202</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -27370,7 +27442,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0-20666-0-2:14804</t>
+          <t>0-20666-0-1:72202</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -27383,7 +27455,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2:14804</t>
+          <t xml:space="preserve">1:72202 </t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -27420,12 +27492,12 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>19190203</t>
+          <t>19450101</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>19560918</t>
+          <t>19791231</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -27550,7 +27622,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72206</t>
+          <t>era5.1761.conv.1:72353</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -27560,7 +27632,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0-20666-0-1:72206</t>
+          <t>0-20666-0-1:72353</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -27573,7 +27645,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>1:72206</t>
+          <t xml:space="preserve">1:72353 </t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -27610,7 +27682,7 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>19301101</t>
+          <t>19320401</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr">
@@ -27740,7 +27812,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>era5.1761.conv.2:13802</t>
+          <t>era5.1761.conv.2:13956</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -27750,7 +27822,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0-20666-0-2:13802</t>
+          <t>0-20666-0-2:13956</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -27763,7 +27835,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2:13802</t>
+          <t xml:space="preserve">2:13956 </t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -27800,12 +27872,12 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>19220119</t>
+          <t>19320125</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>19590930</t>
+          <t>19791231</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -27930,7 +28002,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>era5.1761.conv.1:72211</t>
+          <t>era5.1761.conv.2:13963</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -27940,7 +28012,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0-20666-0-1:72211</t>
+          <t>0-20666-0-2:13963</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -27953,7 +28025,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>1:72211</t>
+          <t xml:space="preserve">2:13963 </t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -27990,7 +28062,7 @@
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>19381224</t>
+          <t>19390315</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr">
@@ -28109,386 +28181,6 @@
         </is>
       </c>
       <c r="AN143" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>era5.1761.conv.1:72327</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>COORDINATE_ISSUES</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>0-20666-0-1:72327</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F144" t="n">
-        <v>143</v>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>1:72327</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P144" t="inlineStr">
-        <is>
-          <t>19370701</t>
-        </is>
-      </c>
-      <c r="Q144" t="inlineStr">
-        <is>
-          <t>19791231</t>
-        </is>
-      </c>
-      <c r="R144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="S144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="X144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Y144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Z144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AA144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AB144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AC144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AD144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AE144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AF144" t="inlineStr">
-        <is>
-          <t>[85, 106, 107, 117]</t>
-        </is>
-      </c>
-      <c r="AG144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AH144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AI144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AJ144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AK144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AL144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AM144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AN144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>era5.1761.conv.1:42182</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>COORDINATE_ISSUES</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>0-20666-0-1:42182</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F145" t="n">
-        <v>144</v>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>1:42182</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P145" t="inlineStr">
-        <is>
-          <t>19451101</t>
-        </is>
-      </c>
-      <c r="Q145" t="inlineStr">
-        <is>
-          <t>19670730</t>
-        </is>
-      </c>
-      <c r="R145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="S145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="X145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Y145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Z145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AA145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AB145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AC145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AD145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AE145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AF145" t="inlineStr">
-        <is>
-          <t>[85, 106, 107, 117]</t>
-        </is>
-      </c>
-      <c r="AG145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AH145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AI145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AJ145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AK145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AL145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AM145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AN145" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
